--- a/Assignment-Support.xlsx
+++ b/Assignment-Support.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kaushalya.tech\consultancy\operative\batch2-august2022\training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB8D30D-BF00-488C-B49D-D966B202B9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B126CAF-6C55-4F98-A9DB-D3C350EE94A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="Updated" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
   <si>
     <t>Help Desk</t>
   </si>
@@ -85,6 +86,39 @@
   </si>
   <si>
     <t>Use Reactive form</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>&lt;Update&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Delete&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Edit Button&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resolution </t>
+  </si>
+  <si>
+    <t>&lt;Pending/Completed&gt;</t>
+  </si>
+  <si>
+    <t>drop down</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>active/inactive</t>
+  </si>
+  <si>
+    <t>localhost:3000/support?status='active'</t>
   </si>
 </sst>
 </file>
@@ -115,12 +149,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -135,10 +181,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,7 +469,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="184" zoomScaleNormal="184" workbookViewId="0"/>
+    <sheetView zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="B3" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -527,4 +577,163 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8D3F12-F24E-44DC-9C8C-64D2FF3FD619}">
+  <dimension ref="B1:L18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>